--- a/src/test/java/resources/companies.xlsx
+++ b/src/test/java/resources/companies.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>company</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -906,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,6 +1035,44 @@
       </c>
       <c r="L3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/companies.xlsx
+++ b/src/test/java/resources/companies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java projects\test\src\test\java\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>company</t>
   </si>
@@ -54,56 +54,64 @@
     <t xml:space="preserve">	zipcode</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>djfnkj</t>
-  </si>
-  <si>
-    <t>affff@gmail.com</t>
-  </si>
-  <si>
-    <t>jfngj</t>
-  </si>
-  <si>
-    <t>fngf</t>
-  </si>
-  <si>
-    <t>dfjdsn</t>
-  </si>
-  <si>
-    <t>kjdfn</t>
-  </si>
-  <si>
-    <t>87y8@hbhj</t>
-  </si>
-  <si>
-    <t>bgvu</t>
-  </si>
-  <si>
-    <t>cfvg</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Invalid</t>
+    <t>google</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>goog@gmail.com</t>
+  </si>
+  <si>
+    <t>seatle</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>mic@gmail.com</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>manfui</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>iiml@gmail.com</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>djshf</t>
+  </si>
+  <si>
+    <t>dsbjhf</t>
+  </si>
+  <si>
+    <t>dfjsnjf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,15 +966,15 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>34859</v>
@@ -983,28 +991,25 @@
       <c r="G2">
         <v>4583445</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>4398</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>3475</v>
@@ -1018,66 +1023,97 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>8877</v>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>8979</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>-9203</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>-198287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>343</v>
+      </c>
+      <c r="D5">
+        <v>923</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="I5" t="s">
         <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
